--- a/Dataset_Producao_Leite_Brasil_IBGE.xlsx
+++ b/Dataset_Producao_Leite_Brasil_IBGE.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07653dd19d9f03f0/Documentos/PROJETOS/Metodos Exatos/Cursos/Curso009_Estatistica_Aplicada_Trilha/Curso009.02_Estatistica_Descritiva/Bases_Material_Apoio_ED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documentos\PROJETOS\Metodos Exatos\Cursos\Curso009_Estatistica_Aplicada_Trilha\Curso009.02_Estatistica_Descritiva\Bases_Material_Apoio_ED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16D7477-C52C-4EEC-9648-1FA2FB281A44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{E16D7477-C52C-4EEC-9648-1FA2FB281A44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{68863D3F-DA4C-4575-B7E6-49F96022483E}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="645" windowWidth="18000" windowHeight="9360"/>
+    <workbookView xWindow="2610" yWindow="435" windowWidth="15315" windowHeight="10230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Qtd abate BR" sheetId="1" r:id="rId1"/>
+    <sheet name="Qtd abate BR (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Qtd abate BR (2)'!$A$6:$C$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Qtd abate BR'!$A$1:$G$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Qtd abate BR (2)'!$A$1:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Mês</t>
   </si>
@@ -114,10 +117,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="_(* ###\ ###\ ###\ ##0_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* ###\ ###\ ###\ ##0_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,13 +277,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -295,10 +298,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,14 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1133,4 +1139,215 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9188B366-D929-44AD-9B04-02D6F2B5A71A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C7" activeCellId="1" sqref="A7:A18 C7:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2248090.8160000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2264144.9959999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2139864.6839999999</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2218091.173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2151087.148</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2205637.5610000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2097648.4339999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2157290.0440000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2115177.608</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2116351.963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2097555.5499999998</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2096181.8089999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2055677.672</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2032784.5319999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1925689.2779999999</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1964156.5959999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1826898.3319999999</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1886212.2819999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1808665.747</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1869634.1810000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1926213.4709999999</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1869617.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1904584.31</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1727745.5560000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <autoFilter ref="A6:C18" xr:uid="{F2C608C2-9308-409D-B482-1BA8DD58511F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C18">
+      <sortCondition descending="1" ref="C6:C18"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.59027777777777779" right="0.43333333333333335" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>